--- a/testlabel.xlsx
+++ b/testlabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE69A32A-42B7-4436-969D-6839EAB943CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552BB74-0D22-45C6-8684-9652DD3BB952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="1500" windowWidth="13200" windowHeight="9112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -613,6 +613,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>137</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>138</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>139</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>140</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>141</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>142</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>143</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>144</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>145</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>146</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>147</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>149</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>151</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>152</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>153</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>154</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>155</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>156</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>157</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>158</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>159</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>160</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>161</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>162</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>164</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>165</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>166</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>167</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>168</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>169</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>170</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>171</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>172</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>173</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>174</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>175</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>176</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>177</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>178</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>179</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>180</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>181</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>182</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>183</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>184</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>185</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>186</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>187</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>188</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>189</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>190</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>191</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>192</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>193</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>194</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>195</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>196</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>197</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testlabel.xlsx
+++ b/testlabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552BB74-0D22-45C6-8684-9652DD3BB952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D0145-C6FE-4128-AA67-15B8846A5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="1500" windowWidth="13200" windowHeight="9112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="1733" windowWidth="17625" windowHeight="11617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B92"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -375,39 +375,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -415,55 +415,55 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -471,23 +471,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -495,71 +495,71 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -575,15 +575,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -631,23 +631,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>141</v>
+        <v>289</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -671,23 +671,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -695,23 +695,23 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -719,23 +719,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -751,15 +751,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -783,15 +783,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -823,15 +823,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -847,15 +847,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -863,23 +863,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -887,31 +887,31 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -919,71 +919,71 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1023,15 +1023,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1055,15 +1055,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>196</v>
+        <v>346</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1095,10 +1095,418 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="B92">
         <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>348</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>349</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>350</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>351</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>352</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>353</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>354</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>355</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>356</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>357</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>358</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>359</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>360</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>361</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>362</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>363</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>364</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>365</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>366</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>367</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>368</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>369</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>370</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>371</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>372</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>373</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>494</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>498</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>503</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>511</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>523</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>526</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>530</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>533</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>540</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>543</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>544</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>546</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>547</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>549</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>550</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>562</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>578</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>582</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>587</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>592</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>596</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>599</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>603</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>606</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>607</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testlabel.xlsx
+++ b/testlabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D0145-C6FE-4128-AA67-15B8846A5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF2853-7D90-4E09-9C09-AD2CBEEA8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1733" windowWidth="17625" windowHeight="11617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1943" windowWidth="16222" windowHeight="13537" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>label</t>
+    <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,25 +357,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:XFD134"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>255</v>
+        <v>0.82544689800210302</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -383,1130 +383,1194 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>256</v>
+        <v>0.96322489391796318</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>257</v>
+        <v>0.94014598540145999</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>258</v>
+        <v>0.77067348678601877</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>259</v>
+        <v>0.88096935138987886</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>260</v>
+        <v>0.88758782201405151</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>261</v>
+        <v>0.94668158090976884</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>262</v>
+        <v>0.91596638655462181</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>263</v>
+        <v>0.94645080946450799</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>264</v>
+        <v>0.82059447983014866</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>265</v>
+        <v>0.83489096573208721</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>266</v>
+        <v>0.88396707173657385</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>267</v>
+        <v>0.85746606334841624</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>268</v>
+        <v>0.83618796662274919</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>269</v>
+        <v>0.77460317460317463</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>270</v>
+        <v>0.81857923497267759</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>271</v>
+        <v>0.93544002718314645</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>272</v>
+        <v>0.90096923725242317</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>273</v>
+        <v>0.86866902237926968</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>274</v>
+        <v>0.87485714285714289</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>275</v>
+        <v>0.93841166936790921</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>276</v>
+        <v>0.87816455696202533</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>277</v>
+        <v>0.83316782522343591</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>278</v>
+        <v>0.90909090909090917</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>279</v>
+        <v>0.91016843418590143</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>280</v>
+        <v>0.82974910394265233</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>281</v>
+        <v>0.84126984126984128</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>282</v>
+        <v>0.84933123524783638</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>283</v>
+        <v>0.86573576799140706</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>284</v>
+        <v>0.81742125984251968</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>285</v>
+        <v>0.90095411176737838</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>286</v>
+        <v>0.95475409836065561</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>287</v>
+        <v>0.88362652232746952</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>288</v>
+        <v>0.89585798816568052</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>289</v>
+        <v>0.92916400765794516</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>290</v>
+        <v>0.87277353689567427</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>291</v>
+        <v>0.91483361534122964</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>292</v>
+        <v>0.91483361534122964</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>293</v>
+        <v>0.8720259552992069</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>294</v>
+        <v>0.93230505569837197</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>296</v>
+        <v>0.93665768194070076</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>297</v>
+        <v>0.86869436201780414</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>298</v>
+        <v>0.94306335204490777</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>299</v>
+        <v>0.85143979057591623</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>300</v>
+        <v>0.83933518005540164</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>301</v>
+        <v>0.88672566371681416</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>302</v>
+        <v>0.91911021233569257</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>303</v>
+        <v>0.86967741935483867</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>304</v>
+        <v>0.95284501729016036</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>305</v>
+        <v>0.94927768860353123</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>306</v>
+        <v>0.87601078167115898</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>307</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>308</v>
+        <v>0.92993145468393001</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>309</v>
+        <v>0.93591293833131795</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>310</v>
+        <v>0.78300455235204858</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>311</v>
+        <v>0.81476683937823835</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>312</v>
+        <v>0.92885202968136182</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>313</v>
+        <v>0.93512605042016805</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>314</v>
+        <v>0.89020771513353114</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>315</v>
+        <v>0.91259105098855364</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>316</v>
+        <v>0.92332789559543238</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>317</v>
+        <v>0.91344383057090239</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>318</v>
+        <v>0.89338937714940769</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>319</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>320</v>
+        <v>0.94047619047619035</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>321</v>
+        <v>0.94047619047619035</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>322</v>
+        <v>0.91236559139784956</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>323</v>
+        <v>0.81574803149606301</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>324</v>
+        <v>0.87899635774989882</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>326</v>
+        <v>0.88592684438933667</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>327</v>
+        <v>0.80310880829015541</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>328</v>
+        <v>0.78998384491114704</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>329</v>
+        <v>0.87848101265822787</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>330</v>
+        <v>0.85448392554991537</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>331</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>332</v>
+        <v>0.92445670921007239</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>333</v>
+        <v>0.85078369905956108</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>334</v>
+        <v>0.82551594746716694</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>335</v>
+        <v>0.91234140715109557</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>336</v>
+        <v>0.93998553868402024</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>337</v>
+        <v>0.94503311258278144</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>338</v>
+        <v>0.84063604240282686</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>339</v>
+        <v>0.80724876441515647</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>340</v>
+        <v>0.96160962072155398</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>341</v>
+        <v>0.96978417266187056</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>342</v>
+        <v>0.87601078167115898</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>343</v>
+        <v>0.8422712933753943</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>344</v>
+        <v>0.93115519253208878</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>345</v>
+        <v>0.88950789229340765</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>346</v>
+        <v>0.83906186817630413</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>347</v>
+        <v>0.87816455696202533</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>348</v>
+        <v>0.86573576799140706</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>349</v>
+        <v>0.56977777777777783</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>350</v>
+        <v>0.93988439306358385</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>351</v>
+        <v>0.88198433420365541</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>352</v>
+        <v>0.69224211423699911</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>353</v>
+        <v>0.92723081988804756</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>354</v>
+        <v>0.9022346368715084</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>355</v>
+        <v>0.8910969793322735</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>356</v>
+        <v>0.93341260404280624</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>357</v>
+        <v>0.85441259134345138</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>358</v>
+        <v>0.78412391093901257</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>359</v>
+        <v>0.91596638655462181</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>360</v>
+        <v>0.96809282088469917</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>361</v>
+        <v>0.92404227212681644</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>362</v>
+        <v>0.91133656815174235</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>363</v>
+        <v>0.94083072100313481</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>364</v>
+        <v>0.91943661971830981</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>365</v>
+        <v>0.78866587957497047</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>366</v>
+        <v>0.89992088607594933</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>367</v>
+        <v>0.91504090623033363</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>368</v>
+        <v>0.8230593607305936</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>369</v>
+        <v>0.87909552376557454</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>370</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>371</v>
+        <v>0.79086538461538458</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>372</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>373</v>
+        <v>0.83058470764617687</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>494</v>
+        <v>0.90735146022155078</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>498</v>
+        <v>0.84543761638733705</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>503</v>
+        <v>0.90996309963099642</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>511</v>
+        <v>0.958958958958959</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>523</v>
+        <v>0.82149532710280371</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>526</v>
+        <v>0.86582515194015897</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>530</v>
+        <v>0.96709511568123396</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>533</v>
+        <v>0.86720867208672092</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>540</v>
+        <v>0.84471603163191944</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>543</v>
+        <v>0.8720259552992069</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>544</v>
+        <v>0.95152394775036275</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>546</v>
+        <v>0.83383503913305235</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>547</v>
+        <v>0.87899635774989882</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>549</v>
+        <v>0.941929974380871</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>550</v>
+        <v>0.83371559633027525</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>562</v>
+        <v>0.86371760500446826</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>578</v>
+        <v>0.94730746960046319</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>582</v>
+        <v>0.8697100966344552</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>587</v>
+        <v>0.92211838006230518</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>592</v>
+        <v>0.93875726419311578</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>596</v>
+        <v>0.7368905243790248</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>599</v>
+        <v>0.86662275646303311</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>603</v>
+        <v>0.85441259134345138</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>606</v>
+        <v>0.92885202968136182</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>607</v>
+        <v>0.93512605042016805</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>0.89020771513353114</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>0.85958173282116945</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>0.8190567853705486</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>0.82854042322300592</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>0.81861804222648749</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>0.78998384491114704</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>0.93341260404280624</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>0.87277353689567427</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
